--- a/ferry/Staten Island Ferry Passenger Counts - by Month/2020/SIF Monthly Ridership_2020_09.xlsx
+++ b/ferry/Staten Island Ferry Passenger Counts - by Month/2020/SIF Monthly Ridership_2020_09.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Ridership Statistics\Staten Island Ferry\2020\Monthly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Y_Ma2\Desktop\GITHUB\td-trends\ferry\Staten Island Ferry Passenger Counts - by Month\2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72748F4D-E812-49CF-B3F5-F64B529CE454}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12420" activeTab="1"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TOTAL" sheetId="1" r:id="rId1"/>
+    <sheet name="TOTALS" sheetId="1" r:id="rId1"/>
     <sheet name="WEEKDAY-WEEKEND" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
   <si>
     <t>DAY</t>
   </si>
@@ -57,16 +66,19 @@
     <t>Average Sunday Passengers</t>
   </si>
   <si>
-    <t>Total</t>
+    <t>Total September Ridership:</t>
   </si>
   <si>
-    <t>Total September Ridership:</t>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>TOTALS:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -390,7 +402,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -452,6 +464,9 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="17" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -467,6 +482,12 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -479,15 +500,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -767,697 +780,695 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B3:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="1" max="2" width="9.109375" style="1"/>
     <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="1"/>
+    <col min="4" max="5" width="9.109375" style="1"/>
     <col min="6" max="6" width="13" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="21">
+    <row r="3" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="22">
         <v>44075</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
-    </row>
-    <row r="3" spans="2:6" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="B3" s="7" t="s">
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="24"/>
+    </row>
+    <row r="5" spans="2:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F5" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="9" t="str">
-        <f>CHOOSE(WEEKDAY(C4),"SUN","MON","TUE","WED","THU","FRI","SAT")</f>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="str">
+        <f>CHOOSE(WEEKDAY(C6),"SUN","MON","TUE","WED","THU","FRI","SAT")</f>
         <v>TUE</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C6" s="4">
         <v>44075</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D6" s="2">
         <v>10682</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E6" s="2">
         <v>10424</v>
       </c>
-      <c r="F4" s="10">
-        <f>SUM(D4:E4)</f>
+      <c r="F6" s="10">
+        <f>SUM(D6:E6)</f>
         <v>21106</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="9" t="str">
-        <f t="shared" ref="B5:B33" si="0">CHOOSE(WEEKDAY(C5),"SUN","MON","TUE","WED","THU","FRI","SAT")</f>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="str">
+        <f t="shared" ref="B7:B35" si="0">CHOOSE(WEEKDAY(C7),"SUN","MON","TUE","WED","THU","FRI","SAT")</f>
         <v>WED</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C7" s="4">
         <v>44076</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D7" s="2">
         <v>10165</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E7" s="2">
         <v>9922</v>
       </c>
-      <c r="F5" s="10">
-        <f t="shared" ref="F5:F33" si="1">SUM(D5:E5)</f>
+      <c r="F7" s="10">
+        <f t="shared" ref="F7:F35" si="1">SUM(D7:E7)</f>
         <v>20087</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="9" t="str">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="9" t="str">
         <f t="shared" si="0"/>
         <v>THU</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C8" s="4">
         <v>44077</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D8" s="2">
         <v>10996</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E8" s="2">
         <v>10796</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F8" s="10">
         <f t="shared" si="1"/>
         <v>21792</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="9" t="str">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="str">
         <f t="shared" si="0"/>
         <v>FRI</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C9" s="4">
         <v>44078</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D9" s="2">
         <v>11629</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E9" s="2">
         <v>11561</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F9" s="10">
         <f t="shared" si="1"/>
         <v>23190</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="9" t="str">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="9" t="str">
         <f t="shared" si="0"/>
         <v>SAT</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C10" s="4">
         <v>44079</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D10" s="2">
         <v>10396</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E10" s="2">
         <v>10098</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F10" s="10">
         <f t="shared" si="1"/>
         <v>20494</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="9" t="str">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="str">
         <f t="shared" si="0"/>
         <v>SUN</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C11" s="4">
         <v>44080</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D11" s="2">
         <v>10040</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E11" s="2">
         <v>9312</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F11" s="10">
         <f t="shared" si="1"/>
         <v>19352</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="9" t="str">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="9" t="str">
         <f t="shared" si="0"/>
         <v>MON</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C12" s="4">
         <v>44081</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D12" s="2">
         <v>8766</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E12" s="2">
         <v>8678</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F12" s="10">
         <f t="shared" si="1"/>
         <v>17444</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="9" t="str">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="str">
         <f t="shared" si="0"/>
         <v>TUE</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C13" s="4">
         <v>44082</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D13" s="2">
         <v>11188</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E13" s="2">
         <v>11101</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F13" s="10">
         <f t="shared" si="1"/>
         <v>22289</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="9" t="str">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="9" t="str">
         <f t="shared" si="0"/>
         <v>WED</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C14" s="4">
         <v>44083</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D14" s="2">
         <v>11296</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E14" s="2">
         <v>11210</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F14" s="10">
         <f t="shared" si="1"/>
         <v>22506</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="9" t="str">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="str">
         <f t="shared" si="0"/>
         <v>THU</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C15" s="4">
         <v>44084</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D15" s="2">
         <v>10024</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E15" s="2">
         <v>9674</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F15" s="10">
         <f t="shared" si="1"/>
         <v>19698</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="9" t="str">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="9" t="str">
         <f t="shared" si="0"/>
         <v>FRI</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C16" s="4">
         <v>44085</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D16" s="2">
         <v>12107</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E16" s="2">
         <v>12258</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F16" s="10">
         <f t="shared" si="1"/>
         <v>24365</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="9" t="str">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="str">
         <f t="shared" si="0"/>
         <v>SAT</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C17" s="4">
         <v>44086</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D17" s="2">
         <v>10216</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E17" s="2">
         <v>9813</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F17" s="10">
         <f t="shared" si="1"/>
         <v>20029</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="9" t="str">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="str">
         <f t="shared" si="0"/>
         <v>SUN</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C18" s="4">
         <v>44087</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D18" s="2">
         <v>8033</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E18" s="2">
         <v>7404</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F18" s="10">
         <f t="shared" si="1"/>
         <v>15437</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="9" t="str">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="9" t="str">
         <f t="shared" si="0"/>
         <v>MON</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C19" s="4">
         <v>44088</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D19" s="2">
         <v>10864</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E19" s="2">
         <v>10605</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F19" s="10">
         <f t="shared" si="1"/>
         <v>21469</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="9" t="str">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="9" t="str">
         <f t="shared" si="0"/>
         <v>TUE</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C20" s="4">
         <v>44089</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D20" s="2">
         <v>11405</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E20" s="2">
         <v>11136</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F20" s="10">
         <f t="shared" si="1"/>
         <v>22541</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="9" t="str">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="9" t="str">
         <f t="shared" si="0"/>
         <v>WED</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C21" s="4">
         <v>44090</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D21" s="2">
         <v>11063</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E21" s="2">
         <v>10786</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F21" s="10">
         <f t="shared" si="1"/>
         <v>21849</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="9" t="str">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="9" t="str">
         <f t="shared" si="0"/>
         <v>THU</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C22" s="4">
         <v>44091</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D22" s="2">
         <v>11216</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E22" s="2">
         <v>11044</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F22" s="10">
         <f t="shared" si="1"/>
         <v>22260</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="9" t="str">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="9" t="str">
         <f t="shared" si="0"/>
         <v>FRI</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C23" s="4">
         <v>44092</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D23" s="2">
         <v>11617</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E23" s="2">
         <v>11543</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F23" s="10">
         <f t="shared" si="1"/>
         <v>23160</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="9" t="str">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="9" t="str">
         <f t="shared" si="0"/>
         <v>SAT</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C24" s="4">
         <v>44093</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D24" s="2">
         <v>9712</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E24" s="2">
         <v>9460</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F24" s="10">
         <f t="shared" si="1"/>
         <v>19172</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="9" t="str">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="9" t="str">
         <f t="shared" si="0"/>
         <v>SUN</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C25" s="4">
         <v>44094</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D25" s="2">
         <v>7783</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E25" s="2">
         <v>7405</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F25" s="10">
         <f t="shared" si="1"/>
         <v>15188</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="9" t="str">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="9" t="str">
         <f t="shared" si="0"/>
         <v>MON</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C26" s="4">
         <v>44095</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D26" s="2">
         <v>11005</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E26" s="2">
         <v>10777</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F26" s="10">
         <f t="shared" si="1"/>
         <v>21782</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="9" t="str">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="9" t="str">
         <f t="shared" si="0"/>
         <v>TUE</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C27" s="4">
         <v>44096</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D27" s="2">
         <v>11207</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E27" s="2">
         <v>11086</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F27" s="10">
         <f t="shared" si="1"/>
         <v>22293</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="9" t="str">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="9" t="str">
         <f t="shared" si="0"/>
         <v>WED</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C28" s="4">
         <v>44097</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D28" s="2">
         <v>11471</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E28" s="2">
         <v>11274</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F28" s="10">
         <f t="shared" si="1"/>
         <v>22745</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="9" t="str">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="9" t="str">
         <f t="shared" si="0"/>
         <v>THU</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C29" s="4">
         <v>44098</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D29" s="2">
         <v>11178</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E29" s="2">
         <v>11281</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F29" s="10">
         <f t="shared" si="1"/>
         <v>22459</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="9" t="str">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="9" t="str">
         <f t="shared" si="0"/>
         <v>FRI</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C30" s="4">
         <v>44099</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D30" s="2">
         <v>11784</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E30" s="2">
         <v>11870</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F30" s="10">
         <f t="shared" si="1"/>
         <v>23654</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="9" t="str">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="9" t="str">
         <f t="shared" si="0"/>
         <v>SAT</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C31" s="4">
         <v>44100</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D31" s="2">
         <v>10103</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E31" s="2">
         <v>9690</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F31" s="10">
         <f t="shared" si="1"/>
         <v>19793</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="9" t="str">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="9" t="str">
         <f t="shared" si="0"/>
         <v>SUN</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C32" s="4">
         <v>44101</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D32" s="2">
         <v>8285</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E32" s="2">
         <v>7852</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F32" s="10">
         <f t="shared" si="1"/>
         <v>16137</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="9" t="str">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="9" t="str">
         <f t="shared" si="0"/>
         <v>MON</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C33" s="4">
         <v>44102</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D33" s="2">
         <v>11171</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E33" s="2">
         <v>10884</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F33" s="10">
         <f t="shared" si="1"/>
         <v>22055</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="9" t="str">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="9" t="str">
         <f t="shared" si="0"/>
         <v>TUE</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C34" s="4">
         <v>44103</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D34" s="2">
         <v>10670</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E34" s="2">
         <v>10407</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F34" s="10">
         <f t="shared" si="1"/>
         <v>21077</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="9" t="str">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="9" t="str">
         <f t="shared" si="0"/>
         <v>WED</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C35" s="4">
         <v>44104</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D35" s="2">
         <v>11031</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E35" s="2">
         <v>10640</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F35" s="10">
         <f t="shared" si="1"/>
         <v>21671</v>
       </c>
     </row>
-    <row r="34" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="24" t="s">
+    <row r="36" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="18">
+        <f>SUM(D6:D35)</f>
+        <v>317103</v>
+      </c>
+      <c r="E36" s="18">
+        <f>SUM(E6:E35)</f>
+        <v>309991</v>
+      </c>
+      <c r="F36" s="16">
+        <f>SUM(F6:F35)</f>
+        <v>627094</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="18">
-        <f>SUM(D4:D33)</f>
-        <v>317103</v>
-      </c>
-      <c r="E34" s="18">
-        <f>SUM(E4:E33)</f>
-        <v>309991</v>
-      </c>
-      <c r="F34" s="16">
-        <f>SUM(F4:F33)</f>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="21">
+        <f>F36</f>
         <v>627094</v>
       </c>
     </row>
-    <row r="35" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="36" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="32">
-        <f>F34</f>
-        <v>627094</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B36:E36"/>
+  <mergeCells count="2">
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B38:E38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="F4:F33" formulaRange="1"/>
+    <ignoredError sqref="F6:F35" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="1" max="2" width="9.109375" style="1"/>
     <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="1"/>
     <col min="8" max="8" width="11" style="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="19"/>
+    <col min="9" max="9" width="9.109375" style="19"/>
     <col min="10" max="10" width="11" style="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="21">
+    <row r="2" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="22">
         <v>44075</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="23"/>
-    </row>
-    <row r="4" spans="2:8" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="24"/>
+    </row>
+    <row r="4" spans="2:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
@@ -1474,7 +1485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="str">
         <f>CHOOSE(WEEKDAY(C5),"SUN","MON","TUE","WED","THU","FRI","SAT")</f>
         <v>TUE</v>
@@ -1494,7 +1505,7 @@
       </c>
       <c r="H5" s="20"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="str">
         <f t="shared" ref="B6:B26" si="0">CHOOSE(WEEKDAY(C6),"SUN","MON","TUE","WED","THU","FRI","SAT")</f>
         <v>WED</v>
@@ -1514,7 +1525,7 @@
       </c>
       <c r="H6" s="20"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="str">
         <f t="shared" si="0"/>
         <v>THU</v>
@@ -1534,7 +1545,7 @@
       </c>
       <c r="H7" s="20"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="str">
         <f t="shared" si="0"/>
         <v>FRI</v>
@@ -1554,7 +1565,7 @@
       </c>
       <c r="H8" s="20"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="str">
         <f t="shared" si="0"/>
         <v>MON</v>
@@ -1574,7 +1585,7 @@
       </c>
       <c r="H9" s="20"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="str">
         <f t="shared" si="0"/>
         <v>TUE</v>
@@ -1594,7 +1605,7 @@
       </c>
       <c r="H10" s="20"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="str">
         <f t="shared" si="0"/>
         <v>WED</v>
@@ -1614,7 +1625,7 @@
       </c>
       <c r="H11" s="20"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="str">
         <f t="shared" si="0"/>
         <v>THU</v>
@@ -1634,7 +1645,7 @@
       </c>
       <c r="H12" s="20"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="str">
         <f t="shared" si="0"/>
         <v>FRI</v>
@@ -1654,7 +1665,7 @@
       </c>
       <c r="H13" s="20"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="str">
         <f t="shared" si="0"/>
         <v>MON</v>
@@ -1674,7 +1685,7 @@
       </c>
       <c r="H14" s="20"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="str">
         <f t="shared" si="0"/>
         <v>TUE</v>
@@ -1694,7 +1705,7 @@
       </c>
       <c r="H15" s="20"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="str">
         <f t="shared" si="0"/>
         <v>WED</v>
@@ -1714,7 +1725,7 @@
       </c>
       <c r="H16" s="20"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="str">
         <f t="shared" si="0"/>
         <v>THU</v>
@@ -1734,7 +1745,7 @@
       </c>
       <c r="H17" s="20"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="str">
         <f t="shared" si="0"/>
         <v>FRI</v>
@@ -1754,7 +1765,7 @@
       </c>
       <c r="H18" s="20"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="str">
         <f t="shared" si="0"/>
         <v>MON</v>
@@ -1774,7 +1785,7 @@
       </c>
       <c r="H19" s="20"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="str">
         <f t="shared" si="0"/>
         <v>TUE</v>
@@ -1794,7 +1805,7 @@
       </c>
       <c r="H20" s="20"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="9" t="str">
         <f t="shared" si="0"/>
         <v>WED</v>
@@ -1814,7 +1825,7 @@
       </c>
       <c r="H21" s="20"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="str">
         <f t="shared" si="0"/>
         <v>THU</v>
@@ -1834,7 +1845,7 @@
       </c>
       <c r="H22" s="20"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="str">
         <f t="shared" si="0"/>
         <v>FRI</v>
@@ -1854,7 +1865,7 @@
       </c>
       <c r="H23" s="20"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="str">
         <f t="shared" si="0"/>
         <v>MON</v>
@@ -1874,7 +1885,7 @@
       </c>
       <c r="H24" s="20"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="9" t="str">
         <f t="shared" si="0"/>
         <v>TUE</v>
@@ -1894,7 +1905,7 @@
       </c>
       <c r="H25" s="20"/>
     </row>
-    <row r="26" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="11" t="str">
         <f t="shared" si="0"/>
         <v>WED</v>
@@ -1914,11 +1925,11 @@
       </c>
       <c r="H26" s="20"/>
     </row>
-    <row r="27" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="28" t="s">
+    <row r="27" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="29"/>
+      <c r="C27" s="32"/>
       <c r="D27" s="13">
         <f>SUM(D5:D26)</f>
         <v>242535</v>
@@ -1933,52 +1944,52 @@
       </c>
       <c r="H27" s="20"/>
     </row>
-    <row r="28" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H28" s="20"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="26" t="s">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
       <c r="F29" s="15">
         <f>F27</f>
         <v>481492</v>
       </c>
       <c r="H29" s="20"/>
     </row>
-    <row r="30" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="24" t="s">
+    <row r="30" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
       <c r="F30" s="16">
         <f>AVERAGE(F5:F26)</f>
         <v>21886</v>
       </c>
       <c r="H30" s="20"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H31" s="20"/>
     </row>
-    <row r="32" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H32" s="20"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="21">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="22">
         <v>44075</v>
       </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="24"/>
       <c r="H33" s="20"/>
     </row>
-    <row r="34" spans="2:8" ht="28.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B34" s="7" t="s">
         <v>0</v>
       </c>
@@ -1996,7 +2007,7 @@
       </c>
       <c r="H34" s="20"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="9" t="str">
         <f t="shared" ref="B35:B42" si="2">CHOOSE(WEEKDAY(C35),"SUN","MON","TUE","WED","THU","FRI","SAT")</f>
         <v>SAT</v>
@@ -2015,7 +2026,7 @@
         <v>20494</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="9" t="str">
         <f t="shared" si="2"/>
         <v>SUN</v>
@@ -2034,7 +2045,7 @@
         <v>19352</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="9" t="str">
         <f t="shared" si="2"/>
         <v>SAT</v>
@@ -2053,7 +2064,7 @@
         <v>20029</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="9" t="str">
         <f t="shared" si="2"/>
         <v>SUN</v>
@@ -2072,7 +2083,7 @@
         <v>15437</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="9" t="str">
         <f t="shared" si="2"/>
         <v>SAT</v>
@@ -2091,7 +2102,7 @@
         <v>19172</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="str">
         <f t="shared" si="2"/>
         <v>SUN</v>
@@ -2110,7 +2121,7 @@
         <v>15188</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="9" t="str">
         <f t="shared" si="2"/>
         <v>SAT</v>
@@ -2129,7 +2140,7 @@
         <v>19793</v>
       </c>
     </row>
-    <row r="42" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="11" t="str">
         <f t="shared" si="2"/>
         <v>SUN</v>
@@ -2148,11 +2159,11 @@
         <v>16137</v>
       </c>
     </row>
-    <row r="43" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="28" t="s">
+    <row r="43" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="29"/>
+      <c r="C43" s="32"/>
       <c r="D43" s="13">
         <f>SUM(D35:D42)</f>
         <v>74568</v>
@@ -2166,26 +2177,26 @@
         <v>145602</v>
       </c>
     </row>
-    <row r="44" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B45" s="26" t="s">
+    <row r="44" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
       <c r="F45" s="15">
         <f>AVERAGE(F35,F37,F39,F41)</f>
         <v>19872</v>
       </c>
     </row>
-    <row r="46" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="24" t="s">
+    <row r="46" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
       <c r="F46" s="17">
         <f>AVERAGE(F36,F38,F40,F42)</f>
         <v>16528.5</v>
@@ -2210,6 +2221,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010056AE8379B00F7343AA85C9CCF3ABC79C" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8ed5a08c4ea4bafe7608c7a0bbf74949">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="670d3029-f9df-404e-98fc-7004dcdec636" xmlns:ns3="5f7ac3ca-9ce0-489a-bc70-1e3f2f642f01" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f6b6dc1f77d7f192bee01dd38b44bce" ns2:_="" ns3:_="">
     <xsd:import namespace="670d3029-f9df-404e-98fc-7004dcdec636"/>
@@ -2388,29 +2414,38 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C3200C0-9F33-4118-A723-DFFC19EA9451}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8ED13E0E-9777-497D-91F1-4EEA31488771}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9770DC7-B7EC-4FA0-8EC6-E72B0DBD159B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9770DC7-B7EC-4FA0-8EC6-E72B0DBD159B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8ED13E0E-9777-497D-91F1-4EEA31488771}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C3200C0-9F33-4118-A723-DFFC19EA9451}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="670d3029-f9df-404e-98fc-7004dcdec636"/>
+    <ds:schemaRef ds:uri="5f7ac3ca-9ce0-489a-bc70-1e3f2f642f01"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>